--- a/data/FOMC_econometrics_v1.xlsx
+++ b/data/FOMC_econometrics_v1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive - Ekagrata Capital Advisers Pte. Ltd\Documents\GitHub\NLP_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC9EE226-C43E-4C11-B6C7-E2A3C3A23AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89A4339-6FAD-46D1-9599-29025320370D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10575" yWindow="1155" windowWidth="15570" windowHeight="20055" xr2:uid="{E68CED00-F7AC-4E17-A603-CEEAB8374712}"/>
+    <workbookView xWindow="28905" yWindow="900" windowWidth="20175" windowHeight="20055" xr2:uid="{E68CED00-F7AC-4E17-A603-CEEAB8374712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000474974513E-3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dates</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>US_10-2_Spread</t>
+  </si>
+  <si>
+    <t>Fed_fund_rate_delta</t>
+  </si>
+  <si>
+    <t>Unemployment_rate_delta</t>
+  </si>
+  <si>
+    <t>Core_CPI_delta</t>
+  </si>
+  <si>
+    <t>US_10-2_Spread_delta</t>
   </si>
 </sst>
 </file>
@@ -426,15 +438,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC4A8FA-0AC6-4EBF-A1CF-F428958334AE}">
-  <dimension ref="A1:F207"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +463,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>35514</v>
       </c>
@@ -473,8 +495,20 @@
       <c r="F2">
         <v>0.4529999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>0.4300000000000006</v>
+      </c>
+      <c r="H2">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I2">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J2">
+        <v>-5.3000000000000824E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>36067</v>
       </c>
@@ -493,8 +527,20 @@
       <c r="F3">
         <v>0.12000000000000011</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>-0.90999999999999925</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J3">
+        <v>0.13399999999999945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>36083</v>
       </c>
@@ -513,8 +559,20 @@
       <c r="F4">
         <v>0.58199999999999985</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="H4">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J4">
+        <v>0.53000000000000025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>36116</v>
       </c>
@@ -533,8 +591,20 @@
       <c r="F5">
         <v>0.30999999999999961</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>-0.87000000000000011</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.2289999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>36298</v>
       </c>
@@ -553,8 +623,20 @@
       <c r="F6">
         <v>0.31599999999999984</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>-9.0000000000000746E-2</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="J6">
+        <v>0.21400000000000041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>36341</v>
       </c>
@@ -573,8 +655,20 @@
       <c r="F7">
         <v>0.26800000000000068</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="H7">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-6.9999999999996732E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>36396</v>
       </c>
@@ -593,8 +687,20 @@
       <c r="F8">
         <v>0.21899999999999942</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0.27000000000000046</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J8">
+        <v>6.9999999999996732E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>36438</v>
       </c>
@@ -613,8 +719,20 @@
       <c r="F9">
         <v>0.26100000000000012</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>0.24000000000000021</v>
+      </c>
+      <c r="H9">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I9">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J9">
+        <v>-2.0999999999999908E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>36480</v>
       </c>
@@ -633,8 +751,20 @@
       <c r="F10">
         <v>0.12300000000000022</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0.51000000000000068</v>
+      </c>
+      <c r="H10">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>-0.12099999999999955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>36515</v>
       </c>
@@ -653,8 +783,20 @@
       <c r="F11">
         <v>0.16900000000000048</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>0.30999999999999961</v>
+      </c>
+      <c r="H11">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I11">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J11">
+        <v>-9.9000000000000199E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>36558</v>
       </c>
@@ -673,8 +815,20 @@
       <c r="F12">
         <v>-1.899999999999924E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="H12">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I12">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J12">
+        <v>-0.22499999999999964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>36606</v>
       </c>
@@ -693,8 +847,20 @@
       <c r="F13">
         <v>-0.36699999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J13">
+        <v>-0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>36662</v>
       </c>
@@ -713,8 +879,20 @@
       <c r="F14">
         <v>-0.44799999999999951</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="H14">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I14">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J14">
+        <v>-0.38199999999999967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>36705</v>
       </c>
@@ -733,8 +911,20 @@
       <c r="F15">
         <v>-0.35899999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="H15">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="J15">
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>36760</v>
       </c>
@@ -753,8 +943,20 @@
       <c r="F16">
         <v>-0.48499999999999943</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>-6.0000000000000497E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I16">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J16">
+        <v>-0.12299999999999933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>36802</v>
       </c>
@@ -773,8 +975,20 @@
       <c r="F17">
         <v>-0.12800000000000011</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>-5.9999999999999609E-2</v>
+      </c>
+      <c r="H17">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I17">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J17">
+        <v>0.17300000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>36845</v>
       </c>
@@ -793,8 +1007,20 @@
       <c r="F18">
         <v>-0.17899999999999938</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="H18">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.29800000000000093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>36879</v>
       </c>
@@ -813,8 +1039,20 @@
       <c r="F19">
         <v>-0.15700000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>-3.0000000000000249E-2</v>
+      </c>
+      <c r="H19">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>3.7999999999999368E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>36894</v>
       </c>
@@ -833,8 +1071,20 @@
       <c r="F20">
         <v>0.22900000000000009</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>-0.19000000000000039</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.38099999999999934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>36922</v>
       </c>
@@ -853,8 +1103,20 @@
       <c r="F21">
         <v>0.54199999999999982</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="H21">
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="I21">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J21">
+        <v>0.65899999999999981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>36970</v>
       </c>
@@ -873,8 +1135,20 @@
       <c r="F22">
         <v>0.55299999999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>-1.33</v>
+      </c>
+      <c r="H22">
+        <v>0.30000000000000027</v>
+      </c>
+      <c r="I22">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J22">
+        <v>0.7240000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>36999</v>
       </c>
@@ -893,8 +1167,20 @@
       <c r="F23">
         <v>0.9009999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>-1.2599999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="I23">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J23">
+        <v>0.50699999999999967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>37026</v>
       </c>
@@ -913,8 +1199,20 @@
       <c r="F24">
         <v>1.2729999999999997</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>-1.2800000000000002</v>
+      </c>
+      <c r="H24">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.96400000000000041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>37069</v>
       </c>
@@ -933,8 +1231,20 @@
       <c r="F25">
         <v>1.1270000000000007</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>-1.5100000000000002</v>
+      </c>
+      <c r="H25">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I25">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="J25">
+        <v>0.40100000000000069</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>37124</v>
       </c>
@@ -953,8 +1263,20 @@
       <c r="F26">
         <v>1.1879999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>-0.44000000000000039</v>
+      </c>
+      <c r="H26">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I26">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J26">
+        <v>3.5999999999999588E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>37151</v>
       </c>
@@ -973,8 +1295,20 @@
       <c r="F27">
         <v>1.6840000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>-1.7800000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.60000000000000053</v>
+      </c>
+      <c r="I27">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J27">
+        <v>0.40600000000000058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>37166</v>
       </c>
@@ -993,8 +1327,20 @@
       <c r="F28">
         <v>1.7550000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>-1.3399999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J28">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>37201</v>
       </c>
@@ -1013,8 +1359,20 @@
       <c r="F29">
         <v>1.9240000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>-1.62</v>
+      </c>
+      <c r="H29">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="I29">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J29">
+        <v>0.60400000000000054</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>37236</v>
       </c>
@@ -1033,8 +1391,20 @@
       <c r="F30">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>-1.76</v>
+      </c>
+      <c r="H30">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="I30">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.78799999999999981</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>37286</v>
       </c>
@@ -1053,8 +1423,20 @@
       <c r="F31">
         <v>1.9210000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>-0.82999999999999985</v>
+      </c>
+      <c r="H31">
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="I31">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J31">
+        <v>0.16800000000000015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>37334</v>
       </c>
@@ -1073,8 +1455,20 @@
       <c r="F32">
         <v>1.7459999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="H32">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I32">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="J32">
+        <v>-0.23100000000000032</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>37383</v>
       </c>
@@ -1093,8 +1487,20 @@
       <c r="F33">
         <v>1.9419000000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I33">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J33">
+        <v>-2.6099999999999568E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>37433</v>
       </c>
@@ -1113,8 +1519,20 @@
       <c r="F34">
         <v>1.9870999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H34">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I34">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J34">
+        <v>0.31409999999999938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>37481</v>
       </c>
@@ -1133,8 +1551,20 @@
       <c r="F35">
         <v>2.1209000000000007</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="H35">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I35">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="J35">
+        <v>0.18480000000000096</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>37523</v>
       </c>
@@ -1153,8 +1583,20 @@
       <c r="F36">
         <v>1.7682</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="H36">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I36">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J36">
+        <v>-0.21889999999999987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37566</v>
       </c>
@@ -1173,8 +1615,20 @@
       <c r="F37">
         <v>2.2066000000000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>-0.22999999999999998</v>
+      </c>
+      <c r="H37">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>-0.10839999999999961</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37600</v>
       </c>
@@ -1193,8 +1647,20 @@
       <c r="F38">
         <v>2.1758999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>-0.5</v>
+      </c>
+      <c r="H38">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I38">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="J38">
+        <v>0.28309999999999969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37650</v>
       </c>
@@ -1213,8 +1679,20 @@
       <c r="F39">
         <v>2.3210000000000006</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="H39">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I39">
+        <v>-0.30000000000000027</v>
+      </c>
+      <c r="J39">
+        <v>9.8200000000000287E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>37698</v>
       </c>
@@ -1233,8 +1711,20 @@
       <c r="F40">
         <v>2.2172000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J40">
+        <v>-4.6800000000000175E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>37747</v>
       </c>
@@ -1253,8 +1743,20 @@
       <c r="F41">
         <v>2.3596000000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I41">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="J41">
+        <v>6.1400000000000787E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>37797</v>
       </c>
@@ -1273,8 +1775,20 @@
       <c r="F42">
         <v>2.1207000000000003</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>-0.1100000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I42">
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="J42">
+        <v>-0.19280000000000008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>37845</v>
       </c>
@@ -1293,8 +1807,20 @@
       <c r="F43">
         <v>2.7064000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>-0.31000000000000005</v>
+      </c>
+      <c r="H43">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.56760000000000055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>37880</v>
       </c>
@@ -1313,8 +1839,20 @@
       <c r="F44">
         <v>2.6909999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>-0.25</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J44">
+        <v>0.5631999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>37922</v>
       </c>
@@ -1333,8 +1871,20 @@
       <c r="F45">
         <v>2.5105000000000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="H45">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I45">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J45">
+        <v>-0.16889999999999983</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>37964</v>
       </c>
@@ -1353,8 +1903,20 @@
       <c r="F46">
         <v>2.3872</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H46">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I46">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="J46">
+        <v>-0.25629999999999953</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>38014</v>
       </c>
@@ -1373,8 +1935,20 @@
       <c r="F47">
         <v>2.3720000000000003</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="H47">
+        <v>-0.39999999999999947</v>
+      </c>
+      <c r="I47">
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="J47">
+        <v>-0.11339999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>38062</v>
       </c>
@@ -1393,8 +1967,20 @@
       <c r="F48">
         <v>2.2092000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I48">
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="J48">
+        <v>-0.17130000000000045</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>38111</v>
       </c>
@@ -1413,8 +1999,20 @@
       <c r="F49">
         <v>2.2420999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I49">
+        <v>0.7</v>
+      </c>
+      <c r="J49">
+        <v>-0.11580000000000057</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>38168</v>
       </c>
@@ -1433,8 +2031,20 @@
       <c r="F50">
         <v>1.9033999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>0.34999999999999987</v>
+      </c>
+      <c r="H50">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I50">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J50">
+        <v>-0.35530000000000062</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>38209</v>
       </c>
@@ -1453,8 +2063,20 @@
       <c r="F51">
         <v>1.7599</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="H51">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>-0.45879999999999965</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>38251</v>
       </c>
@@ -1473,8 +2095,20 @@
       <c r="F52">
         <v>1.5777000000000005</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="H52">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>-0.39299999999999935</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>38301</v>
       </c>
@@ -1493,8 +2127,20 @@
       <c r="F53">
         <v>1.4024999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>0.40999999999999992</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J53">
+        <v>-0.35580000000000034</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>38335</v>
       </c>
@@ -1513,8 +2159,20 @@
       <c r="F54">
         <v>1.1646000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>0.67000000000000015</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="J54">
+        <v>-0.52619999999999978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>38385</v>
       </c>
@@ -1533,8 +2191,20 @@
       <c r="F55">
         <v>0.82679999999999954</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>0.52</v>
+      </c>
+      <c r="H55">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I55">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J55">
+        <v>-0.62300000000000066</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>38433</v>
       </c>
@@ -1553,8 +2223,20 @@
       <c r="F56">
         <v>0.81949999999999967</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>0.4700000000000002</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="J56">
+        <v>-0.37380000000000058</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>38475</v>
       </c>
@@ -1573,8 +2255,20 @@
       <c r="F57">
         <v>0.53110000000000035</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="H57">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I57">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="J57">
+        <v>-0.29569999999999919</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>38533</v>
       </c>
@@ -1593,8 +2287,20 @@
       <c r="F58">
         <v>0.27989999999999959</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>0.52</v>
+      </c>
+      <c r="H58">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I58">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="J58">
+        <v>-0.44250000000000034</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>38573</v>
       </c>
@@ -1613,8 +2319,20 @@
       <c r="F59">
         <v>0.28070000000000039</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>0.48</v>
+      </c>
+      <c r="H59">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I59">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J59">
+        <v>-0.24699999999999944</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>38615</v>
       </c>
@@ -1633,8 +2351,20 @@
       <c r="F60">
         <v>0.26819999999999977</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>0.73999999999999977</v>
+      </c>
+      <c r="H60">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I60">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J60">
+        <v>-7.1600000000000108E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>38657</v>
       </c>
@@ -1653,8 +2383,20 @@
       <c r="F61">
         <v>0.16420000000000012</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61">
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>-0.12099999999999955</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>38699</v>
       </c>
@@ -1673,8 +2415,20 @@
       <c r="F62">
         <v>0.11890000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62">
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="H62">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>-0.17159999999999975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>38748</v>
       </c>
@@ -1693,8 +2447,20 @@
       <c r="F63">
         <v>-3.00000000000189E-4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63">
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="H63">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>-0.18020000000000014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>38804</v>
       </c>
@@ -1713,8 +2479,20 @@
       <c r="F64">
         <v>-1.1000000000000121E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64">
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="H64">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>-2.5000000000000355E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>38847</v>
       </c>
@@ -1733,8 +2511,20 @@
       <c r="F65">
         <v>0.13980000000000015</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>0.36000000000000032</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="J65">
+        <v>0.2475000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>38897</v>
       </c>
@@ -1753,8 +2543,20 @@
       <c r="F66">
         <v>1.0299999999999976E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="H66">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I66">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J66">
+        <v>-2.0800000000000374E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>38937</v>
       </c>
@@ -1773,8 +2575,20 @@
       <c r="F67">
         <v>1.7999999999999794E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67">
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="J67">
+        <v>-0.12180000000000035</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>38980</v>
       </c>
@@ -1793,8 +2607,20 @@
       <c r="F68">
         <v>-8.4900000000000198E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68">
+        <v>0.25</v>
+      </c>
+      <c r="H68">
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="I68">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J68">
+        <v>-5.9200000000000585E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>39015</v>
       </c>
@@ -1813,8 +2639,20 @@
       <c r="F69">
         <v>-8.0400000000000027E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69">
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="H69">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I69">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J69">
+        <v>-7.3100000000000165E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>39063</v>
       </c>
@@ -1833,8 +2671,20 @@
       <c r="F70">
         <v>-0.12239999999999984</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70">
+        <v>-2.9999999999999361E-2</v>
+      </c>
+      <c r="H70">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I70">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="J70">
+        <v>-9.1699999999999449E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>39113</v>
       </c>
@@ -1853,8 +2703,20 @@
       <c r="F71">
         <v>-0.10850000000000026</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71">
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="H71">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>-3.5400000000000986E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>39162</v>
       </c>
@@ -1873,8 +2735,20 @@
       <c r="F72">
         <v>8.199999999999541E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72">
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J72">
+        <v>0.11179999999999968</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>39211</v>
       </c>
@@ -1893,8 +2767,20 @@
       <c r="F73">
         <v>-6.3999999999999169E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73">
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="H73">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I73">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="J73">
+        <v>7.8400000000000247E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>39251</v>
       </c>
@@ -1913,8 +2799,20 @@
       <c r="F74">
         <v>0.14079999999999959</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74">
+        <v>-2.9999999999999361E-2</v>
+      </c>
+      <c r="H74">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I74">
+        <v>-0.5</v>
+      </c>
+      <c r="J74">
+        <v>0.19539999999999935</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>39301</v>
       </c>
@@ -1933,8 +2831,20 @@
       <c r="F75">
         <v>0.21009999999999973</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75">
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="H75">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I75">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.2740999999999989</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>39304</v>
       </c>
@@ -1953,8 +2863,20 @@
       <c r="F76">
         <v>0.35139999999999993</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76">
+        <v>-0.58999999999999986</v>
+      </c>
+      <c r="H76">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I76">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="J76">
+        <v>0.38099999999999934</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>39343</v>
       </c>
@@ -1973,8 +2895,20 @@
       <c r="F77">
         <v>0.49790000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77">
+        <v>-0.34999999999999964</v>
+      </c>
+      <c r="H77">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I77">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J77">
+        <v>0.33360000000000012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>39386</v>
       </c>
@@ -1993,8 +2927,20 @@
       <c r="F78">
         <v>0.52559999999999985</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78">
+        <v>-0.64000000000000057</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.33520000000000039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>39427</v>
       </c>
@@ -2013,8 +2959,20 @@
       <c r="F79">
         <v>1.0505</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79">
+        <v>-0.88999999999999968</v>
+      </c>
+      <c r="H79">
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="I79">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="J79">
+        <v>0.5979000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>39477</v>
       </c>
@@ -2033,8 +2991,20 @@
       <c r="F80">
         <v>1.5005000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80">
+        <v>-1.33</v>
+      </c>
+      <c r="H80">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I80">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="J80">
+        <v>0.91090000000000071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>39518</v>
       </c>
@@ -2053,8 +3023,20 @@
       <c r="F81">
         <v>1.8518999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81">
+        <v>-1.33</v>
+      </c>
+      <c r="H81">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.8954000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>39525</v>
       </c>
@@ -2073,8 +3055,20 @@
       <c r="F82">
         <v>1.8837000000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82">
+        <v>-1.8199999999999998</v>
+      </c>
+      <c r="H82">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.95530000000000026</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>39568</v>
       </c>
@@ -2093,8 +3087,20 @@
       <c r="F83">
         <v>1.4742000000000002</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83">
+        <v>-0.85000000000000009</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="J83">
+        <v>-2.5999999999999801E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>39624</v>
       </c>
@@ -2113,8 +3119,20 @@
       <c r="F84">
         <v>1.2891000000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="H84">
+        <v>0.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>-0.55269999999999975</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>39665</v>
       </c>
@@ -2133,8 +3151,20 @@
       <c r="F85">
         <v>1.4700000000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85">
+        <v>-3.9999999999999813E-2</v>
+      </c>
+      <c r="H85">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="I85">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J85">
+        <v>-7.3900000000000077E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>39707</v>
       </c>
@@ -2153,8 +3183,20 @@
       <c r="F86">
         <v>1.6334000000000002</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86">
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="H86">
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="I86">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J86">
+        <v>0.34579999999999989</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>39729</v>
       </c>
@@ -2173,8 +3215,20 @@
       <c r="F87">
         <v>2.0916999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87">
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="H87">
+        <v>0.5</v>
+      </c>
+      <c r="I87">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J87">
+        <v>0.69679999999999964</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>39750</v>
       </c>
@@ -2193,8 +3247,20 @@
       <c r="F88">
         <v>2.3227000000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88">
+        <v>-1.73</v>
+      </c>
+      <c r="H88">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.88439999999999985</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>39841</v>
       </c>
@@ -2213,8 +3279,20 @@
       <c r="F89">
         <v>1.7677</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89">
+        <v>-0.10999999999999999</v>
+      </c>
+      <c r="H89">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I89">
+        <v>-0.7</v>
+      </c>
+      <c r="J89">
+        <v>-0.63310000000000022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>39890</v>
       </c>
@@ -2233,8 +3311,20 @@
       <c r="F90">
         <v>1.7227999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="H90">
+        <v>1.5000000000000009</v>
+      </c>
+      <c r="I90">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="J90">
+        <v>0.31969999999999965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>39932</v>
       </c>
@@ -2253,8 +3343,20 @@
       <c r="F91">
         <v>2.1532</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91">
+        <v>-5.0000000000000017E-2</v>
+      </c>
+      <c r="H91">
+        <v>1.3999999999999995</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.2488999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>39988</v>
       </c>
@@ -2273,8 +3375,20 @@
       <c r="F92">
         <v>2.4886999999999997</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="H92">
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.65639999999999965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>40037</v>
       </c>
@@ -2293,8 +3407,20 @@
       <c r="F93">
         <v>2.5640000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H93">
+        <v>0.5</v>
+      </c>
+      <c r="I93">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="J93">
+        <v>0.31829999999999981</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>40079</v>
       </c>
@@ -2313,8 +3439,20 @@
       <c r="F94">
         <v>2.4579</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94">
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="H94">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I94">
+        <v>-0.40000000000000013</v>
+      </c>
+      <c r="J94">
+        <v>4.3099999999999916E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>40121</v>
       </c>
@@ -2333,8 +3471,20 @@
       <c r="F95">
         <v>2.6271</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95">
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="H95">
+        <v>0.5</v>
+      </c>
+      <c r="I95">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J95">
+        <v>7.7099999999999724E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>40163</v>
       </c>
@@ -2353,8 +3503,20 @@
       <c r="F96">
         <v>2.7667000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96">
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="H96">
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="I96">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J96">
+        <v>0.31820000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>40205</v>
       </c>
@@ -2373,8 +3535,20 @@
       <c r="F97">
         <v>2.7332999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H97">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I97">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J97">
+        <v>0.21209999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>40253</v>
       </c>
@@ -2393,8 +3567,20 @@
       <c r="F98">
         <v>2.742</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98">
+        <v>0.06</v>
+      </c>
+      <c r="H98">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I98">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="J98">
+        <v>-2.4700000000000166E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>40296</v>
       </c>
@@ -2413,8 +3599,20 @@
       <c r="F99">
         <v>2.7390999999999996</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99">
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>-0.7</v>
+      </c>
+      <c r="J99">
+        <v>-3.6100000000000243E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>40307</v>
       </c>
@@ -2433,8 +3631,20 @@
       <c r="F100">
         <v>2.6174999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H100">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I100">
+        <v>-0.70000000000000007</v>
+      </c>
+      <c r="J100">
+        <v>-0.17900000000000027</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>40352</v>
       </c>
@@ -2453,8 +3663,20 @@
       <c r="F101">
         <v>2.4467000000000003</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>-0.20000000000000107</v>
+      </c>
+      <c r="I101">
+        <v>-0.4</v>
+      </c>
+      <c r="J101">
+        <v>-0.35179999999999945</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>40400</v>
       </c>
@@ -2473,8 +3695,20 @@
       <c r="F102">
         <v>2.2381000000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="H102">
+        <v>-0.5</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>-0.4695999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>40442</v>
       </c>
@@ -2493,8 +3727,20 @@
       <c r="F103">
         <v>2.1572000000000005</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103">
+        <v>0.03</v>
+      </c>
+      <c r="H103">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>-0.28949999999999987</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>40485</v>
       </c>
@@ -2513,8 +3759,20 @@
       <c r="F104">
         <v>2.2424999999999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J104">
+        <v>-0.12870000000000026</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>40526</v>
       </c>
@@ -2533,8 +3791,20 @@
       <c r="F105">
         <v>2.8199000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105">
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="H105">
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="I105">
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.57869999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>40569</v>
       </c>
@@ -2553,8 +3823,20 @@
       <c r="F106">
         <v>2.7896000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106">
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="H106">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0.49130000000000029</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>40617</v>
       </c>
@@ -2573,8 +3855,20 @@
       <c r="F107">
         <v>2.7021999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107">
+        <v>-0.06</v>
+      </c>
+      <c r="H107">
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="I107">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J107">
+        <v>-0.16050000000000031</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>40660</v>
       </c>
@@ -2593,8 +3887,20 @@
       <c r="F108">
         <v>2.7143999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108">
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="H108">
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="I108">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J108">
+        <v>-9.5100000000000406E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>40716</v>
       </c>
@@ -2613,8 +3919,20 @@
       <c r="F109">
         <v>2.6122000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109">
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J109">
+        <v>-0.10130000000000017</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>40764</v>
       </c>
@@ -2633,8 +3951,20 @@
       <c r="F110">
         <v>2.0564</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H110">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I110">
+        <v>0.5</v>
+      </c>
+      <c r="J110">
+        <v>-0.55790000000000006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>40807</v>
       </c>
@@ -2653,8 +3983,20 @@
       <c r="F111">
         <v>1.6639999999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0.5</v>
+      </c>
+      <c r="J111">
+        <v>-0.90579999999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>40849</v>
       </c>
@@ -2673,8 +4015,20 @@
       <c r="F112">
         <v>1.7590000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="H112">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I112">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J112">
+        <v>-0.38909999999999978</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>40890</v>
       </c>
@@ -2693,8 +4047,20 @@
       <c r="F113">
         <v>1.7351000000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="H113">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I113">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J113">
+        <v>-6.3599999999999879E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>40933</v>
       </c>
@@ -2713,8 +4079,20 @@
       <c r="F114">
         <v>1.772</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H114">
+        <v>-0.5</v>
+      </c>
+      <c r="I114">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J114">
+        <v>-0.31559999999999966</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>40981</v>
       </c>
@@ -2733,8 +4111,20 @@
       <c r="F115">
         <v>1.7803</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="H115">
+        <v>-0.29999999999999893</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0.11559999999999993</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>41024</v>
       </c>
@@ -2753,8 +4143,20 @@
       <c r="F116">
         <v>1.7182999999999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="H116">
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="I116">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="J116">
+        <v>-2.1999999999999797E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>41080</v>
       </c>
@@ -2773,8 +4175,20 @@
       <c r="F117">
         <v>1.3467</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="H117">
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="I117">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="J117">
+        <v>-0.56799999999999984</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>41122</v>
       </c>
@@ -2793,8 +4207,20 @@
       <c r="F118">
         <v>1.2968999999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118">
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="J118">
+        <v>-0.37640000000000007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>41165</v>
       </c>
@@ -2813,8 +4239,20 @@
       <c r="F119">
         <v>1.4890000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119">
+        <v>-0.03</v>
+      </c>
+      <c r="H119">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I119">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="J119">
+        <v>0.18180000000000018</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>41206</v>
       </c>
@@ -2833,8 +4271,20 @@
       <c r="F120">
         <v>1.4996999999999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120">
+        <v>0.03</v>
+      </c>
+      <c r="H120">
+        <v>-0.39999999999999947</v>
+      </c>
+      <c r="I120">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="J120">
+        <v>0.29069999999999974</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>41255</v>
       </c>
@@ -2853,8 +4303,20 @@
       <c r="F121">
         <v>1.456</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H121">
+        <v>-0.39999999999999947</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>-3.300000000000014E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>41304</v>
       </c>
@@ -2873,8 +4335,20 @@
       <c r="F122">
         <v>1.7262999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <v>-5.0000000000000017E-2</v>
+      </c>
+      <c r="H122">
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="I122">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J122">
+        <v>0.28349999999999986</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>41353</v>
       </c>
@@ -2893,8 +4367,20 @@
       <c r="F123">
         <v>1.7121</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J123">
+        <v>0.18589999999999995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>41395</v>
       </c>
@@ -2913,8 +4399,20 @@
       <c r="F124">
         <v>1.4294</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124">
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="H124">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I124">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="J124">
+        <v>-0.29370000000000007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>41444</v>
       </c>
@@ -2933,8 +4431,20 @@
       <c r="F125">
         <v>2.0463</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125">
+        <v>-0.06</v>
+      </c>
+      <c r="H125">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I125">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J125">
+        <v>0.38109999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>41486</v>
       </c>
@@ -2953,8 +4463,20 @@
       <c r="F126">
         <v>2.2673000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126">
+        <v>-0.06</v>
+      </c>
+      <c r="H126">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0.83760000000000012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>41535</v>
       </c>
@@ -2973,8 +4495,20 @@
       <c r="F127">
         <v>2.3672000000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="H127">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I127">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J127">
+        <v>0.27950000000000053</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>41577</v>
       </c>
@@ -2993,8 +4527,20 @@
       <c r="F128">
         <v>2.2250999999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>-0.15620000000000012</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>41626</v>
       </c>
@@ -3013,8 +4559,20 @@
       <c r="F129">
         <v>2.5607000000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I129">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J129">
+        <v>0.14349999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>41668</v>
       </c>
@@ -3033,8 +4591,20 @@
       <c r="F130">
         <v>2.3251999999999997</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>-0.5</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>7.6000000000000068E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>41717</v>
       </c>
@@ -3053,8 +4623,20 @@
       <c r="F131">
         <v>2.3529999999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="H131">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I131">
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="J131">
+        <v>-0.21230000000000038</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>41759</v>
       </c>
@@ -3073,8 +4655,20 @@
       <c r="F132">
         <v>2.2355</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132">
+        <v>1.999999999999999E-2</v>
+      </c>
+      <c r="H132">
+        <v>-0.5</v>
+      </c>
+      <c r="I132">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J132">
+        <v>-0.11580000000000013</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>41808</v>
       </c>
@@ -3093,8 +4687,20 @@
       <c r="F133">
         <v>2.1409000000000002</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="H133">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I133">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J133">
+        <v>-0.21099999999999941</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>41850</v>
       </c>
@@ -3113,8 +4719,20 @@
       <c r="F134">
         <v>2.0018000000000002</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I134">
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="J134">
+        <v>-0.20500000000000007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>41899</v>
       </c>
@@ -3133,8 +4751,20 @@
       <c r="F135">
         <v>2.0512000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H135">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I135">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J135">
+        <v>-0.12170000000000014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>41941</v>
       </c>
@@ -3153,8 +4783,20 @@
       <c r="F136">
         <v>1.8363</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136">
+        <v>9.999999999999995E-3</v>
+      </c>
+      <c r="H136">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I136">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="J136">
+        <v>-0.19389999999999974</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>41990</v>
       </c>
@@ -3173,8 +4815,20 @@
       <c r="F137">
         <v>1.5186000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H137">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>-0.53519999999999968</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42032</v>
       </c>
@@ -3193,8 +4847,20 @@
       <c r="F138">
         <v>1.2552999999999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138">
+        <v>0.03</v>
+      </c>
+      <c r="H138">
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="I138">
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="J138">
+        <v>-0.58120000000000016</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>42081</v>
       </c>
@@ -3213,8 +4879,20 @@
       <c r="F139">
         <v>1.3673999999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="H139">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>-0.2088000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42123</v>
       </c>
@@ -3233,8 +4911,20 @@
       <c r="F140">
         <v>1.4818000000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="H140">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I140">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J140">
+        <v>0.24640000000000017</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42172</v>
       </c>
@@ -3253,8 +4943,20 @@
       <c r="F141">
         <v>1.6673</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H141">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0.30800000000000005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>42214</v>
       </c>
@@ -3273,8 +4975,20 @@
       <c r="F142">
         <v>1.5820999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142">
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="H142">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0.11739999999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42264</v>
       </c>
@@ -3293,8 +5007,20 @@
       <c r="F143">
         <v>1.5108000000000001</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H143">
+        <v>-0.5</v>
+      </c>
+      <c r="I143">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J143">
+        <v>-0.12999999999999967</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>42305</v>
       </c>
@@ -3313,8 +5039,20 @@
       <c r="F144">
         <v>1.3980000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144">
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="H144">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I144">
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="J144">
+        <v>-0.13339999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42354</v>
       </c>
@@ -3333,8 +5071,20 @@
       <c r="F145">
         <v>1.2934999999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145">
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="J145">
+        <v>-0.21730000000000027</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42396</v>
       </c>
@@ -3353,8 +5103,20 @@
       <c r="F146">
         <v>1.1663000000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146">
+        <v>0.26</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J146">
+        <v>-0.28259999999999974</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>42445</v>
       </c>
@@ -3373,8 +5135,20 @@
       <c r="F147">
         <v>1.0530999999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I147">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J147">
+        <v>-0.18589999999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42487</v>
       </c>
@@ -3393,8 +5167,20 @@
       <c r="F148">
         <v>1.0335000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J148">
+        <v>-0.12769999999999992</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>42536</v>
       </c>
@@ -3413,8 +5199,20 @@
       <c r="F149">
         <v>0.90240000000000009</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I149">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="J149">
+        <v>-0.13009999999999988</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42578</v>
       </c>
@@ -3433,8 +5231,20 @@
       <c r="F150">
         <v>0.7792</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150">
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="H150">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>-0.26349999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>42634</v>
       </c>
@@ -3453,8 +5263,20 @@
       <c r="F151">
         <v>0.87670000000000003</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H151">
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="I151">
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="J151">
+        <v>-9.0299999999999936E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42676</v>
       </c>
@@ -3473,8 +5295,20 @@
       <c r="F152">
         <v>0.98509999999999998</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152">
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="H152">
+        <v>0.10000000000000053</v>
+      </c>
+      <c r="I152">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J152">
+        <v>0.12730000000000008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42718</v>
       </c>
@@ -3493,8 +5327,20 @@
       <c r="F153">
         <v>1.3033999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153">
+        <v>9.9999999999999534E-3</v>
+      </c>
+      <c r="H153">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I153">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="J153">
+        <v>0.3384999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>42767</v>
       </c>
@@ -3513,8 +5359,20 @@
       <c r="F154">
         <v>1.2574000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154">
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="H154">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I154">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="J154">
+        <v>0.25139999999999985</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>42809</v>
       </c>
@@ -3533,8 +5391,20 @@
       <c r="F155">
         <v>1.1935999999999998</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I155">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J155">
+        <v>-0.12929999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>42858</v>
       </c>
@@ -3553,8 +5423,20 @@
       <c r="F156">
         <v>1.0241</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156">
+        <v>0.25</v>
+      </c>
+      <c r="H156">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I156">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="J156">
+        <v>-0.24500000000000011</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>42900</v>
       </c>
@@ -3573,8 +5455,20 @@
       <c r="F157">
         <v>0.79459999999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I157">
+        <v>-0.50000000000000022</v>
+      </c>
+      <c r="J157">
+        <v>-0.41339999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>42942</v>
       </c>
@@ -3593,8 +5487,20 @@
       <c r="F158">
         <v>0.93209999999999993</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158">
+        <v>0.24999999999999989</v>
+      </c>
+      <c r="H158">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I158">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J158">
+        <v>-0.10460000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>42998</v>
       </c>
@@ -3613,8 +5519,20 @@
       <c r="F159">
         <v>0.82939999999999992</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>2.1800000000000042E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43040</v>
       </c>
@@ -3633,8 +5551,20 @@
       <c r="F160">
         <v>0.76019999999999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I160">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J160">
+        <v>-0.12200000000000011</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>43082</v>
       </c>
@@ -3653,8 +5583,20 @@
       <c r="F161">
         <v>0.56790000000000007</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="H161">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>-0.25529999999999986</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43131</v>
       </c>
@@ -3673,8 +5615,20 @@
       <c r="F162">
         <v>0.56440000000000001</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162">
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="H162">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>-0.17260000000000009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>43180</v>
       </c>
@@ -3693,8 +5647,20 @@
       <c r="F163">
         <v>0.57750000000000012</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H163">
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="I163">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J163">
+        <v>-2.7600000000000069E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43222</v>
       </c>
@@ -3713,8 +5679,20 @@
       <c r="F164">
         <v>0.47809999999999997</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J164">
+        <v>-0.15060000000000029</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43264</v>
       </c>
@@ -3733,8 +5711,20 @@
       <c r="F165">
         <v>0.39880000000000004</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165">
+        <v>0.27</v>
+      </c>
+      <c r="H165">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="I165">
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="J165">
+        <v>-0.14459999999999962</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>43313</v>
       </c>
@@ -3753,8 +5743,20 @@
       <c r="F166">
         <v>0.3288000000000002</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166">
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="H166">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I166">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J166">
+        <v>-0.14080000000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43369</v>
       </c>
@@ -3773,8 +5775,20 @@
       <c r="F167">
         <v>0.23320000000000007</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>-9.319999999999995E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>43412</v>
       </c>
@@ -3793,8 +5807,20 @@
       <c r="F168">
         <v>0.27229999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168">
+        <v>0.29000000000000026</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="J168">
+        <v>3.2999999999998586E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43453</v>
       </c>
@@ -3813,8 +5839,20 @@
       <c r="F169">
         <v>0.10899999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169">
+        <v>0.28000000000000025</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>-0.15020000000000033</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>43495</v>
       </c>
@@ -3833,8 +5871,20 @@
       <c r="F170">
         <v>0.1694</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="H170">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I170">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J170">
+        <v>-0.11640000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>43544</v>
       </c>
@@ -3853,8 +5903,20 @@
       <c r="F171">
         <v>0.13019999999999987</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G171">
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J171">
+        <v>-5.7000000000004825E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>43586</v>
       </c>
@@ -3873,8 +5935,20 @@
       <c r="F172">
         <v>0.19550000000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172">
+        <v>5.0000000000000266E-2</v>
+      </c>
+      <c r="H172">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="I172">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J172">
+        <v>2.3799999999999599E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>43635</v>
       </c>
@@ -3893,8 +5967,20 @@
       <c r="F173">
         <v>0.28819999999999979</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G173">
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="H173">
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="I173">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J173">
+        <v>0.15969999999999951</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>43677</v>
       </c>
@@ -3913,8 +5999,20 @@
       <c r="F174">
         <v>0.14230000000000009</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G174">
+        <v>-1.0000000000000231E-2</v>
+      </c>
+      <c r="H174">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I174">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J174">
+        <v>-5.4299999999999571E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>43726</v>
       </c>
@@ -3933,8 +6031,20 @@
       <c r="F175">
         <v>3.400000000000003E-2</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G175">
+        <v>-0.12000000000000011</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="J175">
+        <v>-0.21689999999999987</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>43749</v>
       </c>
@@ -3953,8 +6063,20 @@
       <c r="F176">
         <v>0.13760000000000017</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G176">
+        <v>-0.55999999999999983</v>
+      </c>
+      <c r="H176">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I176">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J176">
+        <v>-0.13719999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>43768</v>
       </c>
@@ -3973,8 +6095,20 @@
       <c r="F177">
         <v>0.17390000000000017</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G177">
+        <v>-0.32000000000000006</v>
+      </c>
+      <c r="H177">
+        <v>-0.20000000000000018</v>
+      </c>
+      <c r="I177">
+        <v>0.19999999999999973</v>
+      </c>
+      <c r="J177">
+        <v>1.440000000000019E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>43810</v>
       </c>
@@ -3993,8 +6127,20 @@
       <c r="F178">
         <v>0.17810000000000015</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G178">
+        <v>-0.57999999999999985</v>
+      </c>
+      <c r="H178">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I178">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="J178">
+        <v>0.12580000000000013</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>43859</v>
       </c>
@@ -4013,8 +6159,20 @@
       <c r="F179">
         <v>0.17110000000000003</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179">
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>4.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>43893</v>
       </c>
@@ -4033,8 +6191,20 @@
       <c r="F180">
         <v>0.29989999999999994</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180">
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="H180">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I180">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J180">
+        <v>9.7999999999999976E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>43905</v>
       </c>
@@ -4053,8 +6223,20 @@
       <c r="F181">
         <v>0.47000000000000003</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181">
+        <v>-0.45999999999999996</v>
+      </c>
+      <c r="H181">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I181">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J181">
+        <v>0.22500000000000014</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>43913</v>
       </c>
@@ -4073,8 +6255,20 @@
       <c r="F182">
         <v>0.47399999999999998</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G182">
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="H182">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I182">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J182">
+        <v>0.19540000000000002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>43950</v>
       </c>
@@ -4093,8 +6287,20 @@
       <c r="F183">
         <v>0.42549999999999999</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183">
+        <v>-1.56</v>
+      </c>
+      <c r="H183">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="I183">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="J183">
+        <v>0.25270000000000015</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>43992</v>
       </c>
@@ -4113,8 +6319,20 @@
       <c r="F184">
         <v>0.55959999999999999</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184">
+        <v>-1.02</v>
+      </c>
+      <c r="H184">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I184">
+        <v>-1.2</v>
+      </c>
+      <c r="J184">
+        <v>0.23639999999999994</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>44041</v>
       </c>
@@ -4133,8 +6351,20 @@
       <c r="F185">
         <v>0.44320000000000004</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185">
+        <v>0.05</v>
+      </c>
+      <c r="H185">
+        <v>-3.6999999999999993</v>
+      </c>
+      <c r="I185">
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="J185">
+        <v>-4.9999999999994493E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>44070</v>
       </c>
@@ -4153,8 +6383,20 @@
       <c r="F186">
         <v>0.59389999999999998</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186">
+        <v>0.03</v>
+      </c>
+      <c r="H186">
+        <v>-4.5</v>
+      </c>
+      <c r="I186">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J186">
+        <v>0.10160000000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>44090</v>
       </c>
@@ -4173,8 +6415,20 @@
       <c r="F187">
         <v>0.55989999999999995</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>-4.7999999999999989</v>
+      </c>
+      <c r="I187">
+        <v>0.5</v>
+      </c>
+      <c r="J187">
+        <v>4.4799999999999951E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44140</v>
       </c>
@@ -4193,8 +6447,20 @@
       <c r="F188">
         <v>0.61820000000000008</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H188">
+        <v>-3.2999999999999989</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0.18320000000000014</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44181</v>
       </c>
@@ -4213,8 +6479,20 @@
       <c r="F189">
         <v>0.80130000000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>-1.7000000000000002</v>
+      </c>
+      <c r="I189">
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="J189">
+        <v>0.24760000000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>44223</v>
       </c>
@@ -4233,8 +6511,20 @@
       <c r="F190">
         <v>0.89700000000000002</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190">
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="H190">
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="I190">
+        <v>-9.9999999999999867E-2</v>
+      </c>
+      <c r="J190">
+        <v>0.22060000000000013</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44272</v>
       </c>
@@ -4253,8 +6543,20 @@
       <c r="F191">
         <v>1.5097</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G191">
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="H191">
+        <v>-0.5</v>
+      </c>
+      <c r="I191">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="J191">
+        <v>0.69780000000000009</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>44314</v>
       </c>
@@ -4273,8 +6575,20 @@
       <c r="F192">
         <v>1.4453</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>-0.60000000000000053</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0.51760000000000006</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44363</v>
       </c>
@@ -4293,8 +6607,20 @@
       <c r="F193">
         <v>1.3701999999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H193">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I193">
+        <v>2.5</v>
+      </c>
+      <c r="J193">
+        <v>-0.18490000000000006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44405</v>
       </c>
@@ -4313,8 +6639,20 @@
       <c r="F194">
         <v>1.0310999999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="H194">
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="I194">
+        <v>2.9</v>
+      </c>
+      <c r="J194">
+        <v>-0.44100000000000028</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>44461</v>
       </c>
@@ -4333,8 +6671,20 @@
       <c r="F195">
         <v>1.0643</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G195">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="H195">
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="I195">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J195">
+        <v>-0.15949999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44503</v>
       </c>
@@ -4353,8 +6703,20 @@
       <c r="F196">
         <v>1.1375</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G196">
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="H196">
+        <v>-0.90000000000000036</v>
+      </c>
+      <c r="I196">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J196">
+        <v>0.11199999999999988</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>44545</v>
       </c>
@@ -4373,8 +6735,20 @@
       <c r="F197">
         <v>0.79339999999999988</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>-1</v>
+      </c>
+      <c r="I197">
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="J197">
+        <v>-0.32510000000000017</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44587</v>
       </c>
@@ -4393,8 +6767,20 @@
       <c r="F198">
         <v>0.71329999999999982</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="I198">
+        <v>1.5</v>
+      </c>
+      <c r="J198">
+        <v>-0.37760000000000016</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>44636</v>
       </c>
@@ -4413,8 +6799,20 @@
       <c r="F199">
         <v>0.24699999999999989</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="I199">
+        <v>1.5</v>
+      </c>
+      <c r="J199">
+        <v>-0.55080000000000018</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44685</v>
       </c>
@@ -4433,8 +6831,20 @@
       <c r="F200">
         <v>0.2923</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200">
+        <v>0.25</v>
+      </c>
+      <c r="H200">
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="I200">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="J200">
+        <v>-0.34240000000000004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>44727</v>
       </c>
@@ -4453,8 +6863,20 @@
       <c r="F201">
         <v>9.3100000000000183E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G201">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="H201">
+        <v>-0.19999999999999973</v>
+      </c>
+      <c r="I201">
+        <v>-0.40000000000000036</v>
+      </c>
+      <c r="J201">
+        <v>-0.16369999999999973</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>44769</v>
       </c>
@@ -4473,8 +6895,20 @@
       <c r="F202">
         <v>-0.21300000000000008</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G202">
+        <v>1.25</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="J202">
+        <v>-0.41809999999999992</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>44825</v>
       </c>
@@ -4493,8 +6927,20 @@
       <c r="F203">
         <v>-0.51849999999999996</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203">
+        <v>0.75</v>
+      </c>
+      <c r="H203">
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I203">
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="J203">
+        <v>-0.59100000000000019</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>44867</v>
       </c>
@@ -4513,8 +6959,20 @@
       <c r="F204">
         <v>-0.51919999999999966</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204">
+        <v>0.75</v>
+      </c>
+      <c r="H204">
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="I204">
+        <v>0.39999999999999947</v>
+      </c>
+      <c r="J204">
+        <v>-0.16479999999999961</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44909</v>
       </c>
@@ -4533,8 +6991,20 @@
       <c r="F205">
         <v>-0.73210000000000042</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G205">
+        <v>1.5</v>
+      </c>
+      <c r="H205">
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="I205">
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="J205">
+        <v>-0.31640000000000068</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>44958</v>
       </c>
@@ -4553,8 +7023,20 @@
       <c r="F206">
         <v>-0.6897000000000002</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G206">
+        <v>0.5</v>
+      </c>
+      <c r="H206">
+        <v>-0.30000000000000027</v>
+      </c>
+      <c r="I206">
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="J206">
+        <v>-0.1227999999999998</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>45007</v>
       </c>
@@ -4572,6 +7054,18 @@
       </c>
       <c r="F207">
         <v>-0.50260000000000016</v>
+      </c>
+      <c r="G207">
+        <v>0.25</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>-0.5</v>
+      </c>
+      <c r="J207">
+        <v>9.0199999999999836E-2</v>
       </c>
     </row>
   </sheetData>
